--- a/biology/Zoologie/Chlorostrymon_simaethis/Chlorostrymon_simaethis.xlsx
+++ b/biology/Zoologie/Chlorostrymon_simaethis/Chlorostrymon_simaethis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Thécla verte ou Thécla de la liane persil (Chlorostrymon simaethis) est une espèce de lépidoptères (papillons) de la famille des Lycaenidae, sous-famille des Theclinae et du genre Chlorostrymon.
 </t>
@@ -511,15 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Chlorostrymon simaethis a été décrit par Drury en 1773, sous le nom initial de Papilio simaethis.
-Synonymes : Chlorostrymon chileana Johnson, 1989; Mitoura simaethis, Dyar, 1903; Tmolus simaethis, Kaye, 1914; Chalybs simaethis, Kaye, 1921; Thecla simaethis, Kirby, 1871; Strymon simaethis, Barnes &amp; McDunnough, 1917[1].
-Noms vernaculaires
-La Thécla de la liane persil ou Thécla verte se nomme Silver-banded Hairstreak en anglais[1],[2].
-Sous-espèces
-Chlorostrymon simaethis simaethis
-Chlorostrymon simaethis sarita (Skinner, 1895)[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlorostrymon simaethis a été décrit par Drury en 1773, sous le nom initial de Papilio simaethis.
+Synonymes : Chlorostrymon chileana Johnson, 1989; Mitoura simaethis, Dyar, 1903; Tmolus simaethis, Kaye, 1914; Chalybs simaethis, Kaye, 1921; Thecla simaethis, Kirby, 1871; Strymon simaethis, Barnes &amp; McDunnough, 1917.
+</t>
         </is>
       </c>
     </row>
@@ -544,82 +554,267 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Thécla de la liane persil ou Thécla verte se nomme Silver-banded Hairstreak en anglais,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chlorostrymon_simaethis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorostrymon_simaethis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chlorostrymon simaethis simaethis
+Chlorostrymon simaethis sarita (Skinner, 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chlorostrymon_simaethis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorostrymon_simaethis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlorostrymon simaethis est un petit papillon d'une envergure de 22 mm à 32 mm qui possède à chaque aile postérieure une queue fine et longue[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlorostrymon simaethis est un petit papillon d'une envergure de 22 mm à 32 mm qui possède à chaque aile postérieure une queue fine et longue.
 Le dessus du mâle est marron avec une discrète suffusion bleu violet, celui de la femelle est gris.
 Le revers est vert avec une bande postmédiane blanc argenté.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chlorostrymon_simaethis</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chlorostrymon_simaethis</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chlorostrymon_simaethis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorostrymon_simaethis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlorostrymon simaethis vole en deux générations entre aout et décembre[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont Cardiospermum corindum et Cardiospermum halicacabum[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlorostrymon simaethis vole en deux générations entre aout et décembre.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chlorostrymon_simaethis</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chlorostrymon_simaethis</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chlorostrymon_simaethis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorostrymon_simaethis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Cardiospermum corindum et Cardiospermum halicacabum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chlorostrymon_simaethis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorostrymon_simaethis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlorostrymon simaethis est présent dans le sud de l'Arizona, de la Californie et du Texas, aux Antilles et dans toute l'Amérique du Sud, dont en Guyane[1],[4].
-Biotope
-La Thécla de la liane persil réside principalement en zone sèche où se trouve la plante hôte de sa chenille Cardiospermum halicacabum[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlorostrymon simaethis est présent dans le sud de l'Arizona, de la Californie et du Texas, aux Antilles et dans toute l'Amérique du Sud, dont en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chlorostrymon_simaethis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorostrymon_simaethis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Thécla de la liane persil réside principalement en zone sèche où se trouve la plante hôte de sa chenille Cardiospermum halicacabum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chlorostrymon_simaethis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorostrymon_simaethis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
